--- a/demo/ams_benchmark/opf/cases/pjm5bus_uced.xlsx
+++ b/demo/ams_benchmark/opf/cases/pjm5bus_uced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/5bus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/5bus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2038135-16B7-804B-B333-7000EB57E69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5897A7B1-E573-CB4F-9180-F2FBF8064DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Slack" sheetId="4" r:id="rId5"/>
     <sheet name="Line" sheetId="5" r:id="rId6"/>
     <sheet name="Area" sheetId="6" r:id="rId7"/>
-    <sheet name="Region" sheetId="10" r:id="rId8"/>
+    <sheet name="Zone" sheetId="10" r:id="rId8"/>
     <sheet name="GCost" sheetId="11" r:id="rId9"/>
     <sheet name="SRCost" sheetId="18" r:id="rId10"/>
     <sheet name="SFRCost" sheetId="16" r:id="rId11"/>
@@ -3598,7 +3598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+    <sheetView zoomScale="165" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
@@ -4279,8 +4279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB94B98-B38A-EC46-833E-965628D04701}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
